--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H2">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I2">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J2">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N2">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O2">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P2">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q2">
-        <v>86.20856396145533</v>
+        <v>229.9897260752389</v>
       </c>
       <c r="R2">
-        <v>775.8770756530979</v>
+        <v>2069.90753467715</v>
       </c>
       <c r="S2">
-        <v>0.0307178526494481</v>
+        <v>0.1048965084743254</v>
       </c>
       <c r="T2">
-        <v>0.0307178526494481</v>
+        <v>0.1048965084743254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H3">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I3">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J3">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.815932</v>
       </c>
       <c r="O3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P3">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q3">
-        <v>119.8399461049826</v>
+        <v>202.8673400708378</v>
       </c>
       <c r="R3">
-        <v>1078.559514944844</v>
+        <v>1825.80606063754</v>
       </c>
       <c r="S3">
-        <v>0.0427013934209201</v>
+        <v>0.09252620114840658</v>
       </c>
       <c r="T3">
-        <v>0.04270139342092012</v>
+        <v>0.09252620114840657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H4">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I4">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J4">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N4">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P4">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q4">
-        <v>280.6142110210949</v>
+        <v>69.59106252794</v>
       </c>
       <c r="R4">
-        <v>2525.527899189855</v>
+        <v>626.31956275146</v>
       </c>
       <c r="S4">
-        <v>0.09998851145857333</v>
+        <v>0.03173993727794296</v>
       </c>
       <c r="T4">
-        <v>0.09998851145857336</v>
+        <v>0.03173993727794296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H5">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I5">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J5">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N5">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O5">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P5">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q5">
-        <v>12.22093704684733</v>
+        <v>13.83278486171167</v>
       </c>
       <c r="R5">
-        <v>109.988433421626</v>
+        <v>124.495063755405</v>
       </c>
       <c r="S5">
-        <v>0.004354566718117275</v>
+        <v>0.006309024577886463</v>
       </c>
       <c r="T5">
-        <v>0.004354566718117276</v>
+        <v>0.006309024577886463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H6">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I6">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J6">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N6">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O6">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P6">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q6">
-        <v>20.997307137749</v>
+        <v>36.77571351369556</v>
       </c>
       <c r="R6">
-        <v>188.975764239741</v>
+        <v>330.98142162326</v>
       </c>
       <c r="S6">
-        <v>0.007481764653694506</v>
+        <v>0.0167731142171835</v>
       </c>
       <c r="T6">
-        <v>0.007481764653694507</v>
+        <v>0.0167731142171835</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.239839</v>
+        <v>56.26903166666667</v>
       </c>
       <c r="H7">
-        <v>99.719517</v>
+        <v>168.807095</v>
       </c>
       <c r="I7">
-        <v>0.3249443602591239</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="J7">
-        <v>0.324944360259124</v>
+        <v>0.3377285232633515</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N7">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P7">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q7">
-        <v>392.0638566852146</v>
+        <v>187.4264613094684</v>
       </c>
       <c r="R7">
-        <v>3528.574710166932</v>
+        <v>1686.838151785215</v>
       </c>
       <c r="S7">
-        <v>0.1397002713583706</v>
+        <v>0.08548373756760665</v>
       </c>
       <c r="T7">
-        <v>0.1397002713583707</v>
+        <v>0.08548373756760663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J8">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N8">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O8">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P8">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q8">
-        <v>28.16863860939489</v>
+        <v>44.39288331575223</v>
       </c>
       <c r="R8">
-        <v>253.517747484554</v>
+        <v>399.53594984177</v>
       </c>
       <c r="S8">
-        <v>0.01003705490936865</v>
+        <v>0.02024724556351339</v>
       </c>
       <c r="T8">
-        <v>0.01003705490936865</v>
+        <v>0.02024724556351339</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J9">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.815932</v>
       </c>
       <c r="O9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P9">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q9">
         <v>39.15768895431244</v>
@@ -1013,10 +1013,10 @@
         <v>352.419200588812</v>
       </c>
       <c r="S9">
-        <v>0.01395267551294895</v>
+        <v>0.01785951451538884</v>
       </c>
       <c r="T9">
-        <v>0.01395267551294895</v>
+        <v>0.01785951451538884</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J10">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N10">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P10">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q10">
-        <v>91.690661990935</v>
+        <v>13.432547493932</v>
       </c>
       <c r="R10">
-        <v>825.2159579184149</v>
+        <v>120.892927445388</v>
       </c>
       <c r="S10">
-        <v>0.03267123490918134</v>
+        <v>0.006126479456600015</v>
       </c>
       <c r="T10">
-        <v>0.03267123490918135</v>
+        <v>0.006126479456600015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J11">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N11">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O11">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P11">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q11">
-        <v>3.993189809944222</v>
+        <v>2.670020156017666</v>
       </c>
       <c r="R11">
-        <v>35.938708289498</v>
+        <v>24.030181404159</v>
       </c>
       <c r="S11">
-        <v>0.001422854186945832</v>
+        <v>0.001217775231536658</v>
       </c>
       <c r="T11">
-        <v>0.001422854186945832</v>
+        <v>0.001217775231536658</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J12">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N12">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O12">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P12">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q12">
-        <v>6.860867753210333</v>
+        <v>7.098490818380888</v>
       </c>
       <c r="R12">
-        <v>61.74780977889299</v>
+        <v>63.88641736542799</v>
       </c>
       <c r="S12">
-        <v>0.002444665761799418</v>
+        <v>0.003237565933887067</v>
       </c>
       <c r="T12">
-        <v>0.002444665761799418</v>
+        <v>0.003237565933887067</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892015</v>
       </c>
       <c r="J13">
-        <v>0.1061755332845213</v>
+        <v>0.06518875073892014</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N13">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P13">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q13">
-        <v>128.1068212168484</v>
+        <v>36.17727265118634</v>
       </c>
       <c r="R13">
-        <v>1152.961390951636</v>
+        <v>325.595453860677</v>
       </c>
       <c r="S13">
-        <v>0.04564704800427707</v>
+        <v>0.01650017003799418</v>
       </c>
       <c r="T13">
-        <v>0.04564704800427707</v>
+        <v>0.01650017003799418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H14">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J14">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N14">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O14">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P14">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q14">
-        <v>66.49734976607867</v>
+        <v>157.29890545824</v>
       </c>
       <c r="R14">
-        <v>598.476147894708</v>
+        <v>1415.69014912416</v>
       </c>
       <c r="S14">
-        <v>0.02369434888866154</v>
+        <v>0.07174279586734467</v>
       </c>
       <c r="T14">
-        <v>0.02369434888866154</v>
+        <v>0.07174279586734465</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H15">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J15">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.815932</v>
       </c>
       <c r="O15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P15">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q15">
-        <v>92.43906226826934</v>
+        <v>138.748852354944</v>
       </c>
       <c r="R15">
-        <v>831.9515604144241</v>
+        <v>1248.739671194496</v>
       </c>
       <c r="S15">
-        <v>0.03293790504478691</v>
+        <v>0.06328226227849855</v>
       </c>
       <c r="T15">
-        <v>0.03293790504478691</v>
+        <v>0.06328226227849854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H16">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J16">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N16">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P16">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q16">
-        <v>216.45298891587</v>
+        <v>47.59603027545599</v>
       </c>
       <c r="R16">
-        <v>1948.07690024283</v>
+        <v>428.3642724791039</v>
       </c>
       <c r="S16">
-        <v>0.07712657204246129</v>
+        <v>0.02170817574477356</v>
       </c>
       <c r="T16">
-        <v>0.0771265720424613</v>
+        <v>0.02170817574477356</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H17">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J17">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N17">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O17">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P17">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q17">
-        <v>9.426672802910668</v>
+        <v>9.460778771807998</v>
       </c>
       <c r="R17">
-        <v>84.840055226196</v>
+        <v>85.147008946272</v>
       </c>
       <c r="S17">
-        <v>0.003358913927203775</v>
+        <v>0.004314986923746413</v>
       </c>
       <c r="T17">
-        <v>0.003358913927203775</v>
+        <v>0.004314986923746413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H18">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J18">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N18">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O18">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P18">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q18">
-        <v>16.196363942554</v>
+        <v>25.152338679936</v>
       </c>
       <c r="R18">
-        <v>145.767275482986</v>
+        <v>226.371048119424</v>
       </c>
       <c r="S18">
-        <v>0.005771091619930623</v>
+        <v>0.01147178420755145</v>
       </c>
       <c r="T18">
-        <v>0.005771091619930624</v>
+        <v>0.01147178420755144</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>25.639694</v>
+        <v>38.484576</v>
       </c>
       <c r="H19">
-        <v>76.919082</v>
+        <v>115.453728</v>
       </c>
       <c r="I19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="J19">
-        <v>0.2506472418253801</v>
+        <v>0.2309856529590101</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N19">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P19">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q19">
-        <v>302.4201565437414</v>
+        <v>128.188235713824</v>
       </c>
       <c r="R19">
-        <v>2721.781408893672</v>
+        <v>1153.694121424416</v>
       </c>
       <c r="S19">
-        <v>0.1077584103023359</v>
+        <v>0.05846564793709552</v>
       </c>
       <c r="T19">
-        <v>0.1077584103023359</v>
+        <v>0.05846564793709551</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H20">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J20">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N20">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O20">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P20">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q20">
-        <v>6.863192806564444</v>
+        <v>6.552164595324446</v>
       </c>
       <c r="R20">
-        <v>61.76873525908</v>
+        <v>58.96948135792002</v>
       </c>
       <c r="S20">
-        <v>0.002445494225272787</v>
+        <v>0.002988390832613898</v>
       </c>
       <c r="T20">
-        <v>0.002445494225272788</v>
+        <v>0.002988390832613898</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H21">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J21">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.815932</v>
       </c>
       <c r="O21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P21">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q21">
-        <v>9.540637475582221</v>
+        <v>5.779476439416889</v>
       </c>
       <c r="R21">
-        <v>85.86573728024</v>
+        <v>52.015287954752</v>
       </c>
       <c r="S21">
-        <v>0.003399521842026861</v>
+        <v>0.002635973830875079</v>
       </c>
       <c r="T21">
-        <v>0.003399521842026862</v>
+        <v>0.002635973830875079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H22">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J22">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N22">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P22">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q22">
-        <v>22.3401173387</v>
+        <v>1.982575934272</v>
       </c>
       <c r="R22">
-        <v>201.0610560483</v>
+        <v>17.843183408448</v>
       </c>
       <c r="S22">
-        <v>0.007960235051454883</v>
+        <v>0.0009042373189414669</v>
       </c>
       <c r="T22">
-        <v>0.007960235051454887</v>
+        <v>0.000904237318941467</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H23">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J23">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N23">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O23">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P23">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q23">
-        <v>0.9729270895511111</v>
+        <v>0.3940814434293334</v>
       </c>
       <c r="R23">
-        <v>8.75634380596</v>
+        <v>3.546732990864001</v>
       </c>
       <c r="S23">
-        <v>0.000346673573971721</v>
+        <v>0.0001797374525187972</v>
       </c>
       <c r="T23">
-        <v>0.000346673573971721</v>
+        <v>0.0001797374525187973</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H24">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J24">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N24">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O24">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P24">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q24">
-        <v>1.671627048206667</v>
+        <v>1.047701269809778</v>
       </c>
       <c r="R24">
-        <v>15.04464343386</v>
+        <v>9.429311428288001</v>
       </c>
       <c r="S24">
-        <v>0.0005956344821449849</v>
+        <v>0.000477848323934305</v>
       </c>
       <c r="T24">
-        <v>0.000595634482144985</v>
+        <v>0.000477848323934305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.646273333333333</v>
+        <v>1.603045333333333</v>
       </c>
       <c r="H25">
-        <v>7.93882</v>
+        <v>4.809136000000001</v>
       </c>
       <c r="I25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="J25">
-        <v>0.02586930686910907</v>
+        <v>0.00962152923402077</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N25">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P25">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q25">
-        <v>31.21279043830222</v>
+        <v>5.339582097754668</v>
       </c>
       <c r="R25">
-        <v>280.91511394472</v>
+        <v>48.05623887979201</v>
       </c>
       <c r="S25">
-        <v>0.01112174769423783</v>
+        <v>0.002435341475137224</v>
       </c>
       <c r="T25">
-        <v>0.01112174769423783</v>
+        <v>0.002435341475137224</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H26">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J26">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N26">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O26">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P26">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q26">
-        <v>37.294767903764</v>
+        <v>61.52132674682557</v>
       </c>
       <c r="R26">
-        <v>335.652911133876</v>
+        <v>553.6919407214301</v>
       </c>
       <c r="S26">
-        <v>0.01328887911385932</v>
+        <v>0.02805939414154079</v>
       </c>
       <c r="T26">
-        <v>0.01328887911385932</v>
+        <v>0.02805939414154078</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H27">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J27">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.815932</v>
       </c>
       <c r="O27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P27">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q27">
-        <v>51.844071751192</v>
+        <v>54.26619757212311</v>
       </c>
       <c r="R27">
-        <v>466.5966457607281</v>
+        <v>488.395778149108</v>
       </c>
       <c r="S27">
-        <v>0.0184730899532507</v>
+        <v>0.02475038668306181</v>
       </c>
       <c r="T27">
-        <v>0.0184730899532507</v>
+        <v>0.02475038668306181</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H28">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J28">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N28">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P28">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q28">
-        <v>121.39677764739</v>
+        <v>18.615329343188</v>
       </c>
       <c r="R28">
-        <v>1092.57099882651</v>
+        <v>167.537964088692</v>
       </c>
       <c r="S28">
-        <v>0.04325612394561675</v>
+        <v>0.008490305569394332</v>
       </c>
       <c r="T28">
-        <v>0.04325612394561675</v>
+        <v>0.008490305569394332</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H29">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J29">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N29">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O29">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P29">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q29">
-        <v>5.286911065268001</v>
+        <v>3.700214317475667</v>
       </c>
       <c r="R29">
-        <v>47.58219958741201</v>
+        <v>33.30192885728101</v>
       </c>
       <c r="S29">
-        <v>0.001883833201841186</v>
+        <v>0.001687638700795401</v>
       </c>
       <c r="T29">
-        <v>0.001883833201841187</v>
+        <v>0.001687638700795401</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H30">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J30">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N30">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O30">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P30">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q30">
-        <v>9.083664781338001</v>
+        <v>9.837355459450222</v>
       </c>
       <c r="R30">
-        <v>81.75298303204201</v>
+        <v>88.536199135052</v>
       </c>
       <c r="S30">
-        <v>0.003236693240765258</v>
+        <v>0.004486740594575924</v>
       </c>
       <c r="T30">
-        <v>0.003236693240765258</v>
+        <v>0.004486740594575924</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.379918</v>
+        <v>15.05173966666667</v>
       </c>
       <c r="H31">
-        <v>43.139754</v>
+        <v>45.155219</v>
       </c>
       <c r="I31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811822</v>
       </c>
       <c r="J31">
-        <v>0.140574485185944</v>
+        <v>0.09034102168811821</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N31">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P31">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q31">
-        <v>169.611113636776</v>
+        <v>50.13582460396034</v>
       </c>
       <c r="R31">
-        <v>1526.500022730984</v>
+        <v>451.222421435643</v>
       </c>
       <c r="S31">
-        <v>0.06043586573061074</v>
+        <v>0.02286655599874997</v>
       </c>
       <c r="T31">
-        <v>0.06043586573061075</v>
+        <v>0.02286655599874996</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H32">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I32">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J32">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.593531333333333</v>
+        <v>4.087323333333334</v>
       </c>
       <c r="N32">
-        <v>7.780594</v>
+        <v>12.26197</v>
       </c>
       <c r="O32">
-        <v>0.09453265360553549</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="P32">
-        <v>0.09453265360553548</v>
+        <v>0.3105941643920018</v>
       </c>
       <c r="Q32">
-        <v>40.27002641737311</v>
+        <v>181.2349316821789</v>
       </c>
       <c r="R32">
-        <v>362.4302377563579</v>
+        <v>1631.11438513961</v>
       </c>
       <c r="S32">
-        <v>0.01434902381892509</v>
+        <v>0.08265982951266364</v>
       </c>
       <c r="T32">
-        <v>0.01434902381892509</v>
+        <v>0.08265982951266364</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H33">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I33">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J33">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.815932</v>
       </c>
       <c r="O33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="P33">
-        <v>0.1314114003605671</v>
+        <v>0.2739662029560268</v>
       </c>
       <c r="Q33">
-        <v>55.98002766479155</v>
+        <v>159.8621344775018</v>
       </c>
       <c r="R33">
-        <v>503.820248983124</v>
+        <v>1438.759210297516</v>
       </c>
       <c r="S33">
-        <v>0.01994681458663362</v>
+        <v>0.07291186449979595</v>
       </c>
       <c r="T33">
-        <v>0.01994681458663362</v>
+        <v>0.07291186449979595</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H34">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I34">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J34">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.442105</v>
+        <v>1.236756</v>
       </c>
       <c r="N34">
-        <v>25.326315</v>
+        <v>3.710268</v>
       </c>
       <c r="O34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032426</v>
       </c>
       <c r="P34">
-        <v>0.3077096379787555</v>
+        <v>0.09398062376032428</v>
       </c>
       <c r="Q34">
-        <v>131.081428243745</v>
+        <v>54.83867335367599</v>
       </c>
       <c r="R34">
-        <v>1179.732854193705</v>
+        <v>493.548060183084</v>
       </c>
       <c r="S34">
-        <v>0.04670696057146789</v>
+        <v>0.02501148839267193</v>
       </c>
       <c r="T34">
-        <v>0.0467069605714679</v>
+        <v>0.02501148839267193</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H35">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I35">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J35">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.3676593333333333</v>
+        <v>0.245833</v>
       </c>
       <c r="N35">
-        <v>1.102978</v>
+        <v>0.737499</v>
       </c>
       <c r="O35">
-        <v>0.01340096105882486</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="P35">
-        <v>0.01340096105882485</v>
+        <v>0.01868075730448997</v>
       </c>
       <c r="Q35">
-        <v>5.708684092471778</v>
+        <v>10.90041656280967</v>
       </c>
       <c r="R35">
-        <v>51.378156832246</v>
+        <v>98.10374906528699</v>
       </c>
       <c r="S35">
-        <v>0.002034119450745066</v>
+        <v>0.004971594418006234</v>
       </c>
       <c r="T35">
-        <v>0.002034119450745066</v>
+        <v>0.004971594418006235</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H36">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I36">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J36">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.631691</v>
+        <v>0.6535693333333333</v>
       </c>
       <c r="N36">
-        <v>1.895073</v>
+        <v>1.960708</v>
       </c>
       <c r="O36">
-        <v>0.02302475613895327</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="P36">
-        <v>0.02302475613895326</v>
+        <v>0.04966448807791186</v>
       </c>
       <c r="Q36">
-        <v>9.808330800045665</v>
+        <v>28.97974635631155</v>
       </c>
       <c r="R36">
-        <v>88.27497720041099</v>
+        <v>260.817717206804</v>
       </c>
       <c r="S36">
-        <v>0.003494906380618475</v>
+        <v>0.01321743480077962</v>
       </c>
       <c r="T36">
-        <v>0.003494906380618475</v>
+        <v>0.01321743480077962</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.52710233333333</v>
+        <v>44.34073766666666</v>
       </c>
       <c r="H37">
-        <v>46.581307</v>
+        <v>133.022213</v>
       </c>
       <c r="I37">
-        <v>0.1517890725759216</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="J37">
-        <v>0.1517890725759217</v>
+        <v>0.2661345221165792</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.79499866666667</v>
+        <v>3.330899</v>
       </c>
       <c r="N37">
-        <v>35.384996</v>
+        <v>9.992697</v>
       </c>
       <c r="O37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="P37">
-        <v>0.4299205908573637</v>
+        <v>0.2531137635092454</v>
       </c>
       <c r="Q37">
-        <v>183.1421513188635</v>
+        <v>147.6945187531623</v>
       </c>
       <c r="R37">
-        <v>1648.279361869772</v>
+        <v>1329.250668778461</v>
       </c>
       <c r="S37">
-        <v>0.06525724776753149</v>
+        <v>0.06736231049266188</v>
       </c>
       <c r="T37">
-        <v>0.0652572477675315</v>
+        <v>0.06736231049266188</v>
       </c>
     </row>
   </sheetData>
